--- a/02_CLanguage/022 位域.xlsx
+++ b/02_CLanguage/022 位域.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02_CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF73DFD7-8A47-493A-9B4E-6315E325B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B4EECD-C296-46B8-BA08-C4BCD8CB1B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="2" r:id="rId1"/>
@@ -633,8 +633,8 @@
   </sheetPr>
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -886,11 +886,11 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
